--- a/data/trans_dic/P32-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P32-Edad-trans_dic.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">

--- a/data/trans_dic/P32-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P32-Edad-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -656,62 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,18%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>10,67%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,48%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,53%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,84%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,74%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,07%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,84%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,25%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,53%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,32%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,24%</t>
         </is>
       </c>
     </row>
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,68</t>
+          <t>2,97; 8,83</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,69</t>
+          <t>7,41; 15,04</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,79</t>
+          <t>4,46; 11,47</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0; 2,7</t>
+          <t>2,12; 15,79</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,98</t>
+          <t>1,01; 6,9</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,07</t>
+          <t>1,07; 5,83</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,08</t>
+          <t>3,82; 12,04</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0; 2,82</t>
+          <t>1,69; 15,7</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,4</t>
+          <t>2,5; 6,25</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,42</t>
+          <t>5,21; 10,12</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,46</t>
+          <t>5,15; 10,32</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,39</t>
+          <t>2,48; 12,56</t>
         </is>
       </c>
     </row>
@@ -796,62 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,99%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,99%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,04%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,19%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,21%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,07%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,73%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,95%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,45%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,76%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,78%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,29%</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,4</t>
+          <t>1,72; 4,68</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,42</t>
+          <t>5,55; 10,79</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,54</t>
+          <t>4,62; 10,04</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0; 1,23</t>
+          <t>2,96; 11,23</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,94</t>
+          <t>0,0; 4,78</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,95</t>
+          <t>1,82; 7,63</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,83</t>
+          <t>1,8; 7,01</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0; 1,35</t>
+          <t>1,08; 9,26</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,28</t>
+          <t>1,44; 4,04</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,29</t>
+          <t>4,95; 9,15</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,33</t>
+          <t>3,98; 7,69</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,65</t>
+          <t>3,18; 8,76</t>
         </is>
       </c>
     </row>
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,21%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,8%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,19%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,34%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,96%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,25%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,1%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,32%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,12%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,24%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,42%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,9%</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,49</t>
+          <t>0,44; 2,67</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,47</t>
+          <t>2,94; 7,15</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,47</t>
+          <t>1,8; 5,01</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,71</t>
+          <t>3,83; 10,11</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,88</t>
+          <t>0,0; 3,06</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,85</t>
+          <t>1,59; 6,9</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,77</t>
+          <t>0,33; 3,09</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,83</t>
+          <t>0,62; 4,96</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,31</t>
+          <t>0,46; 2,15</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,3</t>
+          <t>2,87; 6,04</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,29</t>
+          <t>1,39; 3,94</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,38</t>
+          <t>3,09; 7,24</t>
         </is>
       </c>
     </row>
@@ -1076,62 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
+          <t>1,19%</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>7,44%</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>6,56%</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>4,52%</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>1,47%</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,31%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,96%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,28%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,81%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,24%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,58%</t>
         </is>
       </c>
     </row>
@@ -1144,27 +1144,27 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,65</t>
+          <t>0,34; 3,36</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,54</t>
+          <t>5,04; 10,82</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,54</t>
+          <t>4,25; 9,65</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,57</t>
+          <t>2,75; 7,19</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0; 1,37</t>
+          <t>0,0; 4,91</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
@@ -1174,32 +1174,32 @@
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,79</t>
+          <t>1,26; 6,06</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,59</t>
+          <t>0,75; 4,07</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,44</t>
+          <t>0,49; 3,18</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,35</t>
+          <t>3,08; 7,07</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,32</t>
+          <t>3,54; 7,21</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,29</t>
+          <t>2,22; 5,44</t>
         </is>
       </c>
     </row>
@@ -1216,62 +1216,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,47%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,54%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,76%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>9,47%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,37%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,9%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,19%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,51%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,25%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,68%</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,95%</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,43%</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0; 1,04</t>
+          <t>2,95; 10,46</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,91</t>
+          <t>1,66; 7,87</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,76</t>
+          <t>3,1; 9,06</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,63</t>
+          <t>6,66; 13,27</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0; 2,55</t>
+          <t>0,0; 5,58</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0; 1,94</t>
+          <t>0,0; 4,97</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0; 1,68</t>
+          <t>0,85; 8,53</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,8</t>
+          <t>1,68; 6,79</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,74</t>
+          <t>2,14; 7,09</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,62</t>
+          <t>1,17; 5,25</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,52</t>
+          <t>3,06; 7,87</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,35</t>
+          <t>5,43; 10,21</t>
         </is>
       </c>
     </row>
@@ -1356,62 +1356,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
+          <t>1,73%</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>5,12%</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>1,65%</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>4,39%</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="D14" s="2" t="inlineStr">
+      <c r="H14" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,03%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,83%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,41%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,81%</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,48%</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,9%</t>
         </is>
       </c>
     </row>
@@ -1424,22 +1424,22 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,92</t>
+          <t>0,45; 4,84</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,9</t>
+          <t>2,47; 9,3</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,68</t>
+          <t>0,4; 4,04</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,42</t>
+          <t>2,77; 6,75</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1454,32 +1454,32 @@
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>0; 2,2</t>
+          <t>0,0; 6,96</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,94</t>
+          <t>0,0; 2,37</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,76</t>
+          <t>0,37; 4,34</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,67</t>
+          <t>1,85; 7,38</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,52</t>
+          <t>0,51; 3,43</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,29</t>
+          <t>1,39; 4,46</t>
         </is>
       </c>
     </row>
@@ -1496,62 +1496,62 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,74%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,75%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,26%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,11%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,48%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,16%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,25%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,73%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,33%</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,19%</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,53%</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,82%</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1564,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,1</t>
+          <t>2,08; 3,61</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,1</t>
+          <t>5,61; 8,02</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,1</t>
+          <t>4,32; 6,38</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,12</t>
+          <t>4,93; 7,55</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,22</t>
+          <t>0,8; 2,49</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,2</t>
+          <t>1,31; 3,41</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,18</t>
+          <t>2,39; 4,53</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,16</t>
+          <t>1,7; 4,17</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,07</t>
+          <t>1,8; 2,94</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,07</t>
+          <t>4,4; 6,01</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>3,84; 5,34</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,07</t>
+          <t>3,94; 5,92</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P32-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P32-Edad-trans_dic.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N18"/>
+  <dimension ref="A1:N20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>16/24</t>
+          <t>16-24</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -671,7 +671,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>6,53%</t>
+          <t>6,69%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -691,7 +691,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>5,84%</t>
+          <t>5,85%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
@@ -711,7 +711,7 @@
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>6,24%</t>
+          <t>6,37%</t>
         </is>
       </c>
     </row>
@@ -739,7 +739,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>2,12; 15,79</t>
+          <t>1,99; 16,56</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -759,7 +759,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>1,69; 15,7</t>
+          <t>1,74; 15,3</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -779,14 +779,14 @@
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>2,48; 12,56</t>
+          <t>2,5; 13,12</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>25/34</t>
+          <t>25-34</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -811,7 +811,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>6,19%</t>
+          <t>6,9%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -831,7 +831,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>3,95%</t>
+          <t>3,6%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>5,29%</t>
+          <t>5,64%</t>
         </is>
       </c>
     </row>
@@ -879,7 +879,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>2,96; 11,23</t>
+          <t>3,33; 12,72</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -899,7 +899,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>1,08; 9,26</t>
+          <t>0,91; 8,44</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -919,14 +919,14 @@
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>3,18; 8,76</t>
+          <t>3,35; 9,37</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>35/44</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -951,7 +951,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>6,34%</t>
+          <t>6,25%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -971,7 +971,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>2,32%</t>
+          <t>2,23%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
@@ -991,7 +991,7 @@
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>4,9%</t>
+          <t>4,85%</t>
         </is>
       </c>
     </row>
@@ -1019,7 +1019,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>3,83; 10,11</t>
+          <t>3,81; 10,0</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1039,7 +1039,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0,62; 4,96</t>
+          <t>0,59; 4,89</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -1059,14 +1059,14 @@
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>3,09; 7,24</t>
+          <t>3,04; 7,18</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>45/54</t>
+          <t>45-54</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1091,7 +1091,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>4,52%</t>
+          <t>4,42%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -1111,7 +1111,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>1,96%</t>
+          <t>1,9%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
@@ -1131,7 +1131,7 @@
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>3,58%</t>
+          <t>3,52%</t>
         </is>
       </c>
     </row>
@@ -1159,7 +1159,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>2,75; 7,19</t>
+          <t>2,69; 7,1</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1179,7 +1179,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0,75; 4,07</t>
+          <t>0,74; 3,9</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1199,14 +1199,14 @@
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>2,22; 5,44</t>
+          <t>2,19; 5,34</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>55/64</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1231,7 +1231,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>9,47%</t>
+          <t>9,39%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1271,7 +1271,7 @@
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>7,43%</t>
+          <t>7,4%</t>
         </is>
       </c>
     </row>
@@ -1299,7 +1299,7 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>6,66; 13,27</t>
+          <t>6,66; 13,16</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1319,7 +1319,7 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>1,68; 6,79</t>
+          <t>1,69; 6,67</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
@@ -1339,14 +1339,14 @@
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>5,43; 10,21</t>
+          <t>5,4; 10,2</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>65 y más</t>
+          <t>65-74</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1356,22 +1356,22 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>1,73%</t>
+          <t>1,93%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>5,12%</t>
+          <t>6,48%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>1,65%</t>
+          <t>1,16%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>4,39%</t>
+          <t>6,15%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -1386,32 +1386,32 @@
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>1,03%</t>
+          <t>1,59%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>0,83%</t>
+          <t>0,42%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>1,41%</t>
+          <t>1,58%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>3,81%</t>
+          <t>4,72%</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>1,48%</t>
+          <t>1,28%</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>2,9%</t>
+          <t>2,74%</t>
         </is>
       </c>
     </row>
@@ -1424,69 +1424,69 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0,45; 4,84</t>
+          <t>0,0; 7,07</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>2,47; 9,3</t>
+          <t>2,71; 12,81</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0,4; 4,04</t>
+          <t>0,0; 3,94</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>2,77; 6,75</t>
+          <t>3,62; 9,24</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>0; 4,16</t>
+          <t>0; 5,96</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>0; 2,59</t>
+          <t>0; 3,68</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 6,96</t>
+          <t>0,0; 8,34</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,37</t>
+          <t>0,0; 2,28</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>0,37; 4,34</t>
+          <t>0,0; 5,7</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>1,85; 7,38</t>
+          <t>1,91; 9,1</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>0,51; 3,43</t>
+          <t>0,4; 3,67</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>1,39; 4,46</t>
+          <t>0,78; 5,65</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>75 o más</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1496,62 +1496,62 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>2,74%</t>
+          <t>1,38%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>6,75%</t>
+          <t>2,68%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>5,26%</t>
+          <t>2,54%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>6,11%</t>
+          <t>1,25%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>1,48%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>2,16%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>3,25%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>2,73%</t>
+          <t>2,11%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>2,33%</t>
+          <t>1,12%</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>5,19%</t>
+          <t>2,09%</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>4,53%</t>
+          <t>1,84%</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>4,82%</t>
+          <t>1,43%</t>
         </is>
       </c>
     </row>
@@ -1564,74 +1564,214 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
+          <t>0,0; 6,93</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 13,35</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 8,13</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 4,25</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>0; 12,61</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>0; 8,27</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>0; 7,32</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 8,68</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 6,16</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 10,1</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 6,13</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>0,32; 3,94</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>2,74%</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>6,75%</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>5,26%</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>6,19%</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>1,48%</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>2,16%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>3,25%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>2,39%</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>2,33%</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>5,19%</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>4,53%</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>4,69%</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n"/>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
           <t>2,08; 3,61</t>
         </is>
       </c>
-      <c r="D17" s="2" t="inlineStr">
+      <c r="D19" s="2" t="inlineStr">
         <is>
           <t>5,61; 8,02</t>
         </is>
       </c>
-      <c r="E17" s="2" t="inlineStr">
+      <c r="E19" s="2" t="inlineStr">
         <is>
           <t>4,32; 6,38</t>
         </is>
       </c>
-      <c r="F17" s="2" t="inlineStr">
-        <is>
-          <t>4,93; 7,55</t>
-        </is>
-      </c>
-      <c r="G17" s="2" t="inlineStr">
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>4,95; 7,75</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
         <is>
           <t>0,8; 2,49</t>
         </is>
       </c>
-      <c r="H17" s="2" t="inlineStr">
+      <c r="H19" s="2" t="inlineStr">
         <is>
           <t>1,31; 3,41</t>
         </is>
       </c>
-      <c r="I17" s="2" t="inlineStr">
+      <c r="I19" s="2" t="inlineStr">
         <is>
           <t>2,39; 4,53</t>
         </is>
       </c>
-      <c r="J17" s="2" t="inlineStr">
-        <is>
-          <t>1,7; 4,17</t>
-        </is>
-      </c>
-      <c r="K17" s="2" t="inlineStr">
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>1,19; 3,7</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
         <is>
           <t>1,8; 2,94</t>
         </is>
       </c>
-      <c r="L17" s="2" t="inlineStr">
+      <c r="L19" s="2" t="inlineStr">
         <is>
           <t>4,4; 6,01</t>
         </is>
       </c>
-      <c r="M17" s="2" t="inlineStr">
+      <c r="M19" s="2" t="inlineStr">
         <is>
           <t>3,84; 5,34</t>
         </is>
       </c>
-      <c r="N17" s="2" t="inlineStr">
-        <is>
-          <t>3,94; 5,92</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>3,54; 5,77</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -1642,6 +1782,7 @@
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A18:A19"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/trans_dic/P32-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P32-Edad-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,62 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>2,97; 8,83</t>
+          <t>2,91; 8,46</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>7,41; 15,04</t>
+          <t>7,04; 14,44</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>4,46; 11,47</t>
+          <t>4,35; 11,47</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>1,99; 16,56</t>
+          <t>2,07; 17,14</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>1,01; 6,9</t>
+          <t>1,02; 6,28</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>1,07; 5,83</t>
+          <t>1,01; 6,45</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>3,82; 12,04</t>
+          <t>3,72; 11,64</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>1,74; 15,3</t>
+          <t>1,66; 15,25</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>2,5; 6,25</t>
+          <t>2,65; 6,69</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>5,21; 10,12</t>
+          <t>5,32; 10,23</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>5,15; 10,32</t>
+          <t>5,08; 10,41</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>2,5; 13,12</t>
+          <t>2,84; 13,84</t>
         </is>
       </c>
     </row>
@@ -864,62 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>1,72; 4,68</t>
+          <t>1,83; 5,04</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>5,55; 10,79</t>
+          <t>5,78; 10,94</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>4,62; 10,04</t>
+          <t>4,55; 10,12</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>3,33; 12,72</t>
+          <t>3,52; 12,48</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,78</t>
+          <t>0,0; 4,53</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>1,82; 7,63</t>
+          <t>1,72; 8,3</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>1,8; 7,01</t>
+          <t>1,7; 6,69</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0,91; 8,44</t>
+          <t>1,04; 8,28</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>1,44; 4,04</t>
+          <t>1,45; 3,83</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>4,95; 9,15</t>
+          <t>4,89; 8,9</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>3,98; 7,69</t>
+          <t>3,96; 7,86</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>3,35; 9,37</t>
+          <t>3,2; 9,25</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,44; 2,67</t>
+          <t>0,46; 2,72</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>2,94; 7,15</t>
+          <t>3,03; 7,37</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>1,8; 5,01</t>
+          <t>1,8; 5,45</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>3,81; 10,0</t>
+          <t>3,73; 10,2</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,06</t>
+          <t>0,0; 2,99</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>1,59; 6,9</t>
+          <t>1,26; 6,4</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,33; 3,09</t>
+          <t>0,33; 2,97</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0,59; 4,89</t>
+          <t>0,86; 4,91</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0,46; 2,15</t>
+          <t>0,47; 2,39</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>2,87; 6,04</t>
+          <t>2,86; 5,95</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>1,39; 3,94</t>
+          <t>1,47; 3,9</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>3,04; 7,18</t>
+          <t>3,2; 7,32</t>
         </is>
       </c>
     </row>
@@ -1144,27 +1145,27 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,34; 3,36</t>
+          <t>0,34; 3,64</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>5,04; 10,82</t>
+          <t>4,98; 10,71</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>4,25; 9,65</t>
+          <t>4,35; 9,67</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>2,69; 7,1</t>
+          <t>2,59; 6,95</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,91</t>
+          <t>0,0; 5,17</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
@@ -1174,32 +1175,32 @@
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>1,26; 6,06</t>
+          <t>1,64; 6,55</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0,74; 3,9</t>
+          <t>0,8; 4,28</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0,49; 3,18</t>
+          <t>0,47; 3,06</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>3,08; 7,07</t>
+          <t>3,19; 7,07</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>3,54; 7,21</t>
+          <t>3,52; 7,3</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>2,19; 5,34</t>
+          <t>2,16; 5,11</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1285,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>2,95; 10,46</t>
+          <t>2,59; 9,6</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>1,66; 7,87</t>
+          <t>1,37; 7,35</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>3,1; 9,06</t>
+          <t>3,33; 9,53</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>6,66; 13,16</t>
+          <t>6,4; 13,0</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 5,58</t>
+          <t>0,0; 7,09</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,97</t>
+          <t>0,0; 3,77</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0,85; 8,53</t>
+          <t>0,86; 8,76</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>1,69; 6,67</t>
+          <t>1,65; 6,48</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>2,14; 7,09</t>
+          <t>2,19; 7,32</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>1,17; 5,25</t>
+          <t>1,19; 5,14</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>3,06; 7,87</t>
+          <t>2,92; 7,79</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>5,4; 10,2</t>
+          <t>5,41; 10,56</t>
         </is>
       </c>
     </row>
@@ -1424,22 +1425,22 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 7,07</t>
+          <t>0,0; 7,79</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>2,71; 12,81</t>
+          <t>3,21; 12,49</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,94</t>
+          <t>0,0; 4,02</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>3,62; 9,24</t>
+          <t>3,63; 9,55</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1454,32 +1455,32 @@
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 8,34</t>
+          <t>0,0; 7,96</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,28</t>
+          <t>0,0; 2,37</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 5,7</t>
+          <t>0,0; 5,12</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>1,91; 9,1</t>
+          <t>1,93; 9,42</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>0,4; 3,67</t>
+          <t>0,39; 3,41</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>0,78; 5,65</t>
+          <t>0,69; 5,62</t>
         </is>
       </c>
     </row>
@@ -1564,22 +1565,22 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0,0; 6,93</t>
+          <t>0,0; 6,98</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0,0; 13,35</t>
+          <t>0,0; 12,42</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0,0; 8,13</t>
+          <t>0,0; 8,74</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,25</t>
+          <t>0,0; 4,9</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -1599,27 +1600,27 @@
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>0,0; 8,68</t>
+          <t>0,0; 8,67</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>0,0; 6,16</t>
+          <t>0,0; 5,57</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>0,0; 10,1</t>
+          <t>0,0; 11,25</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>0,0; 6,13</t>
+          <t>0,0; 6,91</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>0,32; 3,94</t>
+          <t>0,43; 3,73</t>
         </is>
       </c>
     </row>
@@ -1704,62 +1705,62 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>2,08; 3,61</t>
+          <t>2,08; 3,7</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>5,61; 8,02</t>
+          <t>5,63; 7,92</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>4,32; 6,38</t>
+          <t>4,31; 6,45</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>4,95; 7,75</t>
+          <t>4,85; 7,64</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>0,8; 2,49</t>
+          <t>0,78; 2,54</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>1,31; 3,41</t>
+          <t>1,36; 3,34</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>2,39; 4,53</t>
+          <t>2,36; 4,51</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>1,19; 3,7</t>
+          <t>1,19; 3,67</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>1,8; 2,94</t>
+          <t>1,81; 2,96</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>4,4; 6,01</t>
+          <t>4,42; 6,13</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>3,84; 5,34</t>
+          <t>3,78; 5,39</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>3,54; 5,77</t>
+          <t>3,58; 5,76</t>
         </is>
       </c>
     </row>
@@ -1787,4 +1788,1839 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que piensa que debería beber menos</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>16-24</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>14540</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>30082</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>19091</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>11362</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>5269</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>5057</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>12140</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>5898</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>19808</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>35139</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>31231</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>17260</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>8158; 23742</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>19837; 40697</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>11093; 29257</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>3515; 29117</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>1884; 11642</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>1872; 11900</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>6382; 19981</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>1670; 15375</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>12344; 31167</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>24831; 47718</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>21701; 44411</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>7680; 37466</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>15018</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>37324</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>25803</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>15879</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>2639</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>8695</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>8408</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>5123</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>17656</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>46019</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>34210</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>21001</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>9167; 25314</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>26974; 51105</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>16673; 37081</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>8099; 28725</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>0; 9895</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>3672; 17715</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>3830; 15085</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>1482; 11779</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>10446; 27566</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>33257; 60540</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>23472; 46569</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>11905; 34461</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>4854</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>20484</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>13747</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>17639</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>2160</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>7953</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>2741</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>3360</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>7014</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>28437</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>16488</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>20999</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>1852; 10931</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>12945; 31477</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>7776; 23505</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>10516; 28777</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>0; 6708</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>3084; 15644</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>818; 7407</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>1294; 7402</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>2934; 14984</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>19201; 39978</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>10012; 26508</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>13859; 31683</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>3718</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>29316</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>25627</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>15219</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>2142</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>8766</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>3645</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>5859</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>29316</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>34394</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>18864</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>1072; 11423</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>19612; 42198</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>17013; 37786</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>8912; 23912</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>0; 7501</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>0; 2176</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>4341; 17369</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>1538; 8205</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>2147; 14020</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>19439; 43098</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>23080; 47887</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>11552; 27376</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>9842</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>8202</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>16440</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>24697</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>1030</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>1002</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>4172</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>4724</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>10872</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>9204</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>20612</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>29420</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>4670; 17283</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>3183; 17030</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>9521; 27200</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>16826; 34203</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>0; 5346</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>0; 4191</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>1117; 11440</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>2218; 8737</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>5593; 18704</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>4072; 17628</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>12132; 32415</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>21522; 42020</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65-74</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>2511</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>9941</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>2036</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>11688</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>1074</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>1173</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>2511</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>9941</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>3110</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>12861</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>0; 10117</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>4928; 19158</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>0; 7062</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>6888; 18137</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>0; 1752</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>0; 2114</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>0; 5382</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>0; 6632</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>0; 8158</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>4064; 19851</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>955; 8286</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>3227; 26387</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>75 o más</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>1007</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>2294</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>2426</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>1252</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>564</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>1007</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>2294</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>2426</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>1816</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>0; 5108</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>0; 10623</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>0; 8344</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>0; 4897</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>0; 2083</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>0; 2015</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>0; 2679</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>0; 2320</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>0; 4996</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>0; 12360</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>0; 9127</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>543; 4726</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>127</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>94</t>
+        </is>
+      </c>
+      <c r="F25" s="2" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="G25" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="H25" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>62</t>
+        </is>
+      </c>
+      <c r="L25" s="2" t="inlineStr">
+        <is>
+          <t>147</t>
+        </is>
+      </c>
+      <c r="M25" s="2" t="inlineStr">
+        <is>
+          <t>130</t>
+        </is>
+      </c>
+      <c r="N25" s="2" t="inlineStr">
+        <is>
+          <t>134</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>51489</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>137642</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>105170</t>
+        </is>
+      </c>
+      <c r="F26" s="2" t="inlineStr">
+        <is>
+          <t>97735</t>
+        </is>
+      </c>
+      <c r="G26" s="2" t="inlineStr">
+        <is>
+          <t>13239</t>
+        </is>
+      </c>
+      <c r="H26" s="2" t="inlineStr">
+        <is>
+          <t>22706</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>37300</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>24487</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>64728</t>
+        </is>
+      </c>
+      <c r="L26" s="2" t="inlineStr">
+        <is>
+          <t>160348</t>
+        </is>
+      </c>
+      <c r="M26" s="2" t="inlineStr">
+        <is>
+          <t>142471</t>
+        </is>
+      </c>
+      <c r="N26" s="2" t="inlineStr">
+        <is>
+          <t>122222</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>39191; 69535</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>114844; 161660</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>86191; 129082</t>
+        </is>
+      </c>
+      <c r="F27" s="2" t="inlineStr">
+        <is>
+          <t>76577; 120635</t>
+        </is>
+      </c>
+      <c r="G27" s="2" t="inlineStr">
+        <is>
+          <t>6959; 22689</t>
+        </is>
+      </c>
+      <c r="H27" s="2" t="inlineStr">
+        <is>
+          <t>14266; 35088</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>27059; 51661</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>12219; 37688</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>50238; 82102</t>
+        </is>
+      </c>
+      <c r="L27" s="2" t="inlineStr">
+        <is>
+          <t>136494; 189385</t>
+        </is>
+      </c>
+      <c r="M27" s="2" t="inlineStr">
+        <is>
+          <t>118964; 169567</t>
+        </is>
+      </c>
+      <c r="N27" s="2" t="inlineStr">
+        <is>
+          <t>93260; 150209</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>